--- a/Documents/ТЗ/ТЗ  Заадресовка вагонов.xlsx
+++ b/Documents/ТЗ/ТЗ  Заадресовка вагонов.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Мои документы\Visual Studio 2019\Project\Work\IDS_RailWay\Documents\ТЗ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CAB0632-2A51-4025-9307-7C8B6AE29F28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED09AA64-1925-4E2B-8B02-B427C3D0043C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{DECB0A30-1DC6-4735-9D27-866D0DCF7B06}"/>
   </bookViews>
